--- a/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-209_状態遷移モデル定義(サンプル＆ガイド).xlsx
+++ b/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-209_状態遷移モデル定義(サンプル＆ガイド).xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ガイド!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1305,16 +1305,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1482,6 +1472,13 @@
     </rPh>
     <rPh sb="55" eb="57">
       <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4421,9 +4418,7 @@
       <c r="G31" s="18"/>
       <c r="H31" s="15"/>
       <c r="J31" s="19"/>
-      <c r="R31" s="20" t="s">
-        <v>91</v>
-      </c>
+      <c r="R31" s="20"/>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="15"/>
@@ -4463,20 +4458,24 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="27" t="s">
         <v>92</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>93</v>
       </c>
       <c r="O39" s="24"/>
       <c r="P39" s="24"/>
       <c r="Q39" s="25"/>
       <c r="R39" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S39" s="24"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4951,7 +4950,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -4987,7 +4986,7 @@
     </row>
     <row r="5" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6132,7 +6131,7 @@
       <c r="G45" s="38"/>
       <c r="H45" s="38"/>
       <c r="I45" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J45" s="39"/>
       <c r="K45" s="39"/>
@@ -6173,7 +6172,7 @@
       <c r="G46" s="30"/>
       <c r="H46" s="31"/>
       <c r="I46" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J46" s="33"/>
       <c r="K46" s="33"/>
@@ -6233,7 +6232,7 @@
       <c r="X47" s="30"/>
       <c r="Y47" s="31"/>
       <c r="Z47" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA47" s="30"/>
       <c r="AB47" s="30"/>

--- a/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-209_状態遷移モデル定義(サンプル＆ガイド).xlsx
+++ b/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-209_状態遷移モデル定義(サンプル＆ガイド).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F334EEA3-D321-4025-B35E-D31C9FA44F6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="10575" windowHeight="5700"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="17850" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
@@ -18,12 +19,22 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ガイド!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="95">
   <si>
     <t>記述内容</t>
     <rPh sb="0" eb="2">
@@ -1305,17 +1316,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
-  </si>
-  <si>
     <t>状態遷移図で定義した全てのトリガーを行タイトルに記述する。</t>
     <rPh sb="0" eb="2">
       <t>ジョウタイ</t>
@@ -1472,13 +1472,6 @@
     </rPh>
     <rPh sb="55" eb="57">
       <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1486,7 +1479,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -2099,6 +2092,84 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2108,83 +2179,95 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2192,9 +2275,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2203,93 +2283,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2370,6 +2363,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2391,7 +2387,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2489,52 +2491,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>94137</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6715125"/>
-          <a:ext cx="838200" cy="265587"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2555,7 +2511,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2642,7 +2604,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2724,7 +2692,13 @@
     <xdr:ext cx="1107996" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2801,7 +2775,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2888,7 +2868,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="カギ線コネクタ 5"/>
+        <xdr:cNvPr id="6" name="カギ線コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="15" idx="1"/>
@@ -2933,7 +2919,13 @@
     <xdr:ext cx="1005403" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2997,7 +2989,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3079,7 +3077,13 @@
     <xdr:ext cx="902811" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3143,7 +3147,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3225,7 +3235,13 @@
     <xdr:ext cx="1107996" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="テキスト ボックス 49"/>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3302,7 +3318,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3389,7 +3411,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="カギ線コネクタ 23"/>
+        <xdr:cNvPr id="24" name="カギ線コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="23" idx="1"/>
@@ -3434,7 +3462,13 @@
     <xdr:ext cx="1005403" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3498,7 +3532,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3589,7 +3629,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="カギ線コネクタ 36"/>
+        <xdr:cNvPr id="37" name="カギ線コネクタ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="36" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -3634,7 +3680,13 @@
     <xdr:ext cx="697627" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="テキスト ボックス 39"/>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3698,7 +3750,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="カギ線コネクタ 40"/>
+        <xdr:cNvPr id="41" name="カギ線コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -3748,7 +3806,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3786,7 +3850,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3824,7 +3894,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12"/>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3862,7 +3938,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15"/>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3900,7 +3982,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="2"/>
           <a:endCxn id="3" idx="0"/>
@@ -3950,7 +4038,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="直線矢印コネクタ 28"/>
+        <xdr:cNvPr id="29" name="直線矢印コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="26" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -4005,7 +4099,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4038,7 +4138,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4080,7 +4180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4113,9 +4213,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4148,6 +4265,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4323,7 +4457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4432,58 +4566,47 @@
       <c r="R32" s="23"/>
       <c r="S32" s="24"/>
     </row>
-    <row r="33" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="21"/>
       <c r="P36" s="21"/>
       <c r="Q36" s="24"/>
       <c r="R36" s="24"/>
       <c r="S36" s="24"/>
     </row>
-    <row r="37" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="25"/>
       <c r="P37" s="24"/>
       <c r="Q37" s="25"/>
       <c r="R37" s="24"/>
       <c r="S37" s="26"/>
     </row>
-    <row r="38" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="25"/>
       <c r="P38" s="24"/>
       <c r="Q38" s="25"/>
       <c r="R38" s="24"/>
       <c r="S38" s="25"/>
     </row>
-    <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>92</v>
-      </c>
+    <row r="39" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="27"/>
       <c r="O39" s="24"/>
       <c r="P39" s="24"/>
       <c r="Q39" s="25"/>
-      <c r="R39" s="25" t="s">
-        <v>93</v>
-      </c>
+      <c r="R39" s="25"/>
       <c r="S39" s="24"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4946,17 +5069,14 @@
     <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="E39" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH61"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -4986,7 +5106,7 @@
     </row>
     <row r="5" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5212,85 +5332,85 @@
       <c r="B21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="35" t="s">
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="35" t="s">
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="AA21" s="36"/>
-      <c r="AB21" s="36"/>
-      <c r="AC21" s="36"/>
-      <c r="AD21" s="36"/>
-      <c r="AE21" s="36"/>
-      <c r="AF21" s="36"/>
-      <c r="AG21" s="36"/>
-      <c r="AH21" s="37"/>
+      <c r="AA21" s="33"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="33"/>
+      <c r="AD21" s="33"/>
+      <c r="AE21" s="33"/>
+      <c r="AF21" s="33"/>
+      <c r="AG21" s="33"/>
+      <c r="AH21" s="34"/>
     </row>
     <row r="22" spans="2:34" s="1" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B22" s="8">
         <v>1</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38" t="s">
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="38"/>
-      <c r="AA22" s="38"/>
-      <c r="AB22" s="38"/>
-      <c r="AC22" s="38"/>
-      <c r="AD22" s="38"/>
-      <c r="AE22" s="38"/>
-      <c r="AF22" s="38"/>
-      <c r="AG22" s="38"/>
-      <c r="AH22" s="38"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="35"/>
     </row>
     <row r="23" spans="2:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="4">
@@ -5523,87 +5643,87 @@
       <c r="B30" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="35" t="s">
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="47" t="s">
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="W30" s="36"/>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="36"/>
-      <c r="Z30" s="36"/>
-      <c r="AA30" s="37"/>
-      <c r="AB30" s="43" t="s">
+      <c r="W30" s="33"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="33"/>
+      <c r="Z30" s="33"/>
+      <c r="AA30" s="34"/>
+      <c r="AB30" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="AC30" s="43"/>
-      <c r="AD30" s="43"/>
-      <c r="AE30" s="43"/>
-      <c r="AF30" s="43"/>
-      <c r="AG30" s="43"/>
-      <c r="AH30" s="43"/>
+      <c r="AC30" s="49"/>
+      <c r="AD30" s="49"/>
+      <c r="AE30" s="49"/>
+      <c r="AF30" s="49"/>
+      <c r="AG30" s="49"/>
+      <c r="AH30" s="49"/>
     </row>
     <row r="31" spans="2:34" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B31" s="7">
         <v>1</v>
       </c>
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="44" t="s">
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="46"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="49"/>
-      <c r="Z31" s="49"/>
-      <c r="AA31" s="50"/>
-      <c r="AB31" s="44"/>
-      <c r="AC31" s="45"/>
-      <c r="AD31" s="45"/>
-      <c r="AE31" s="45"/>
-      <c r="AF31" s="45"/>
-      <c r="AG31" s="45"/>
-      <c r="AH31" s="46"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="54"/>
+      <c r="W31" s="55"/>
+      <c r="X31" s="55"/>
+      <c r="Y31" s="55"/>
+      <c r="Z31" s="55"/>
+      <c r="AA31" s="56"/>
+      <c r="AB31" s="50"/>
+      <c r="AC31" s="51"/>
+      <c r="AD31" s="51"/>
+      <c r="AE31" s="51"/>
+      <c r="AF31" s="51"/>
+      <c r="AG31" s="51"/>
+      <c r="AH31" s="52"/>
     </row>
     <row r="32" spans="2:34" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="4">
@@ -5633,19 +5753,19 @@
       <c r="S32" s="30"/>
       <c r="T32" s="30"/>
       <c r="U32" s="31"/>
-      <c r="V32" s="55"/>
-      <c r="W32" s="56"/>
-      <c r="X32" s="56"/>
-      <c r="Y32" s="56"/>
-      <c r="Z32" s="56"/>
-      <c r="AA32" s="57"/>
-      <c r="AB32" s="54"/>
-      <c r="AC32" s="54"/>
-      <c r="AD32" s="54"/>
-      <c r="AE32" s="54"/>
-      <c r="AF32" s="54"/>
-      <c r="AG32" s="54"/>
-      <c r="AH32" s="54"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="44"/>
+      <c r="X32" s="44"/>
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="44"/>
+      <c r="AA32" s="45"/>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
+      <c r="AD32" s="39"/>
+      <c r="AE32" s="39"/>
+      <c r="AF32" s="39"/>
+      <c r="AG32" s="39"/>
+      <c r="AH32" s="39"/>
     </row>
     <row r="33" spans="2:34" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="4">
@@ -5675,19 +5795,19 @@
       <c r="S33" s="30"/>
       <c r="T33" s="30"/>
       <c r="U33" s="31"/>
-      <c r="V33" s="55"/>
-      <c r="W33" s="56"/>
-      <c r="X33" s="56"/>
-      <c r="Y33" s="56"/>
-      <c r="Z33" s="56"/>
-      <c r="AA33" s="57"/>
-      <c r="AB33" s="54"/>
-      <c r="AC33" s="54"/>
-      <c r="AD33" s="54"/>
-      <c r="AE33" s="54"/>
-      <c r="AF33" s="54"/>
-      <c r="AG33" s="54"/>
-      <c r="AH33" s="54"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="44"/>
+      <c r="Y33" s="44"/>
+      <c r="Z33" s="44"/>
+      <c r="AA33" s="45"/>
+      <c r="AB33" s="39"/>
+      <c r="AC33" s="39"/>
+      <c r="AD33" s="39"/>
+      <c r="AE33" s="39"/>
+      <c r="AF33" s="39"/>
+      <c r="AG33" s="39"/>
+      <c r="AH33" s="39"/>
     </row>
     <row r="34" spans="2:34" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="4">
@@ -5717,19 +5837,19 @@
       <c r="S34" s="30"/>
       <c r="T34" s="30"/>
       <c r="U34" s="31"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="59"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="59"/>
-      <c r="Z34" s="59"/>
-      <c r="AA34" s="60"/>
-      <c r="AB34" s="54"/>
-      <c r="AC34" s="54"/>
-      <c r="AD34" s="54"/>
-      <c r="AE34" s="54"/>
-      <c r="AF34" s="54"/>
-      <c r="AG34" s="54"/>
-      <c r="AH34" s="54"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="37"/>
+      <c r="AA34" s="38"/>
+      <c r="AB34" s="39"/>
+      <c r="AC34" s="39"/>
+      <c r="AD34" s="39"/>
+      <c r="AE34" s="39"/>
+      <c r="AF34" s="39"/>
+      <c r="AG34" s="39"/>
+      <c r="AH34" s="39"/>
     </row>
     <row r="35" spans="2:34" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="4">
@@ -5759,19 +5879,19 @@
       <c r="S35" s="30"/>
       <c r="T35" s="30"/>
       <c r="U35" s="31"/>
-      <c r="V35" s="51"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="52"/>
-      <c r="Z35" s="52"/>
-      <c r="AA35" s="53"/>
-      <c r="AB35" s="54"/>
-      <c r="AC35" s="54"/>
-      <c r="AD35" s="54"/>
-      <c r="AE35" s="54"/>
-      <c r="AF35" s="54"/>
-      <c r="AG35" s="54"/>
-      <c r="AH35" s="54"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="41"/>
+      <c r="Z35" s="41"/>
+      <c r="AA35" s="42"/>
+      <c r="AB35" s="39"/>
+      <c r="AC35" s="39"/>
+      <c r="AD35" s="39"/>
+      <c r="AE35" s="39"/>
+      <c r="AF35" s="39"/>
+      <c r="AG35" s="39"/>
+      <c r="AH35" s="39"/>
     </row>
     <row r="36" spans="2:34" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="4">
@@ -5801,19 +5921,19 @@
       <c r="S36" s="30"/>
       <c r="T36" s="30"/>
       <c r="U36" s="31"/>
-      <c r="V36" s="51"/>
-      <c r="W36" s="52"/>
-      <c r="X36" s="52"/>
-      <c r="Y36" s="52"/>
-      <c r="Z36" s="52"/>
-      <c r="AA36" s="53"/>
-      <c r="AB36" s="54"/>
-      <c r="AC36" s="54"/>
-      <c r="AD36" s="54"/>
-      <c r="AE36" s="54"/>
-      <c r="AF36" s="54"/>
-      <c r="AG36" s="54"/>
-      <c r="AH36" s="54"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="41"/>
+      <c r="X36" s="41"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="41"/>
+      <c r="AA36" s="42"/>
+      <c r="AB36" s="39"/>
+      <c r="AC36" s="39"/>
+      <c r="AD36" s="39"/>
+      <c r="AE36" s="39"/>
+      <c r="AF36" s="39"/>
+      <c r="AG36" s="39"/>
+      <c r="AH36" s="39"/>
     </row>
     <row r="37" spans="2:34" s="1" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="4">
@@ -5843,12 +5963,12 @@
       <c r="S37" s="30"/>
       <c r="T37" s="30"/>
       <c r="U37" s="31"/>
-      <c r="V37" s="40"/>
-      <c r="W37" s="41"/>
-      <c r="X37" s="41"/>
-      <c r="Y37" s="41"/>
-      <c r="Z37" s="41"/>
-      <c r="AA37" s="42"/>
+      <c r="V37" s="46"/>
+      <c r="W37" s="47"/>
+      <c r="X37" s="47"/>
+      <c r="Y37" s="47"/>
+      <c r="Z37" s="47"/>
+      <c r="AA37" s="48"/>
       <c r="AB37" s="29" t="s">
         <v>78</v>
       </c>
@@ -6079,85 +6199,85 @@
       <c r="B44" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="35" t="s">
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="36"/>
-      <c r="O44" s="36"/>
-      <c r="P44" s="36"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="36"/>
-      <c r="S44" s="36"/>
-      <c r="T44" s="36"/>
-      <c r="U44" s="36"/>
-      <c r="V44" s="36"/>
-      <c r="W44" s="36"/>
-      <c r="X44" s="36"/>
-      <c r="Y44" s="37"/>
-      <c r="Z44" s="35" t="s">
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="33"/>
+      <c r="S44" s="33"/>
+      <c r="T44" s="33"/>
+      <c r="U44" s="33"/>
+      <c r="V44" s="33"/>
+      <c r="W44" s="33"/>
+      <c r="X44" s="33"/>
+      <c r="Y44" s="34"/>
+      <c r="Z44" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="AA44" s="36"/>
-      <c r="AB44" s="36"/>
-      <c r="AC44" s="36"/>
-      <c r="AD44" s="36"/>
-      <c r="AE44" s="36"/>
-      <c r="AF44" s="36"/>
-      <c r="AG44" s="36"/>
-      <c r="AH44" s="37"/>
+      <c r="AA44" s="33"/>
+      <c r="AB44" s="33"/>
+      <c r="AC44" s="33"/>
+      <c r="AD44" s="33"/>
+      <c r="AE44" s="33"/>
+      <c r="AF44" s="33"/>
+      <c r="AG44" s="33"/>
+      <c r="AH44" s="34"/>
     </row>
     <row r="45" spans="2:34" s="1" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B45" s="8">
         <v>1</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="C45" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="J45" s="39"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="39"/>
-      <c r="O45" s="39"/>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="39"/>
-      <c r="S45" s="39"/>
-      <c r="T45" s="39"/>
-      <c r="U45" s="39"/>
-      <c r="V45" s="39"/>
-      <c r="W45" s="39"/>
-      <c r="X45" s="39"/>
-      <c r="Y45" s="39"/>
-      <c r="Z45" s="38"/>
-      <c r="AA45" s="38"/>
-      <c r="AB45" s="38"/>
-      <c r="AC45" s="38"/>
-      <c r="AD45" s="38"/>
-      <c r="AE45" s="38"/>
-      <c r="AF45" s="38"/>
-      <c r="AG45" s="38"/>
-      <c r="AH45" s="38"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="57"/>
+      <c r="N45" s="57"/>
+      <c r="O45" s="57"/>
+      <c r="P45" s="57"/>
+      <c r="Q45" s="57"/>
+      <c r="R45" s="57"/>
+      <c r="S45" s="57"/>
+      <c r="T45" s="57"/>
+      <c r="U45" s="57"/>
+      <c r="V45" s="57"/>
+      <c r="W45" s="57"/>
+      <c r="X45" s="57"/>
+      <c r="Y45" s="57"/>
+      <c r="Z45" s="35"/>
+      <c r="AA45" s="35"/>
+      <c r="AB45" s="35"/>
+      <c r="AC45" s="35"/>
+      <c r="AD45" s="35"/>
+      <c r="AE45" s="35"/>
+      <c r="AF45" s="35"/>
+      <c r="AG45" s="35"/>
+      <c r="AH45" s="35"/>
     </row>
     <row r="46" spans="2:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="4">
@@ -6171,25 +6291,25 @@
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
       <c r="H46" s="31"/>
-      <c r="I46" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="33"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="33"/>
-      <c r="S46" s="33"/>
-      <c r="T46" s="33"/>
-      <c r="U46" s="33"/>
-      <c r="V46" s="33"/>
-      <c r="W46" s="33"/>
-      <c r="X46" s="33"/>
-      <c r="Y46" s="34"/>
+      <c r="I46" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="59"/>
+      <c r="M46" s="59"/>
+      <c r="N46" s="59"/>
+      <c r="O46" s="59"/>
+      <c r="P46" s="59"/>
+      <c r="Q46" s="59"/>
+      <c r="R46" s="59"/>
+      <c r="S46" s="59"/>
+      <c r="T46" s="59"/>
+      <c r="U46" s="59"/>
+      <c r="V46" s="59"/>
+      <c r="W46" s="59"/>
+      <c r="X46" s="59"/>
+      <c r="Y46" s="60"/>
       <c r="Z46" s="29"/>
       <c r="AA46" s="30"/>
       <c r="AB46" s="30"/>
@@ -6232,7 +6352,7 @@
       <c r="X47" s="30"/>
       <c r="Y47" s="31"/>
       <c r="Z47" s="29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="AA47" s="30"/>
       <c r="AB47" s="30"/>
@@ -6263,34 +6383,18 @@
     <row r="61" spans="1:1" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="I23:Y23"/>
-    <mergeCell ref="Z23:AH23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="I24:Y24"/>
-    <mergeCell ref="Z24:AH24"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="I21:Y21"/>
-    <mergeCell ref="Z21:AH21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="I22:Y22"/>
-    <mergeCell ref="Z22:AH22"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="I34:U34"/>
-    <mergeCell ref="V34:AA34"/>
-    <mergeCell ref="AB34:AH34"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="I35:U35"/>
-    <mergeCell ref="V35:AA35"/>
-    <mergeCell ref="AB35:AH35"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="AB32:AH32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="AB33:AH33"/>
-    <mergeCell ref="V32:AA32"/>
-    <mergeCell ref="V33:AA33"/>
-    <mergeCell ref="I32:U32"/>
-    <mergeCell ref="I33:U33"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="I46:Y46"/>
+    <mergeCell ref="Z46:AH46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="I47:Y47"/>
+    <mergeCell ref="Z47:AH47"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="I44:Y44"/>
+    <mergeCell ref="Z44:AH44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="I45:Y45"/>
+    <mergeCell ref="Z45:AH45"/>
     <mergeCell ref="C37:H37"/>
     <mergeCell ref="I37:U37"/>
     <mergeCell ref="V37:AA37"/>
@@ -6307,18 +6411,34 @@
     <mergeCell ref="I36:U36"/>
     <mergeCell ref="V36:AA36"/>
     <mergeCell ref="AB36:AH36"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="I44:Y44"/>
-    <mergeCell ref="Z44:AH44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="I45:Y45"/>
-    <mergeCell ref="Z45:AH45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="I46:Y46"/>
-    <mergeCell ref="Z46:AH46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="I47:Y47"/>
-    <mergeCell ref="Z47:AH47"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="AB32:AH32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="AB33:AH33"/>
+    <mergeCell ref="V32:AA32"/>
+    <mergeCell ref="V33:AA33"/>
+    <mergeCell ref="I32:U32"/>
+    <mergeCell ref="I33:U33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="I34:U34"/>
+    <mergeCell ref="V34:AA34"/>
+    <mergeCell ref="AB34:AH34"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="I35:U35"/>
+    <mergeCell ref="V35:AA35"/>
+    <mergeCell ref="AB35:AH35"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="I21:Y21"/>
+    <mergeCell ref="Z21:AH21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="I22:Y22"/>
+    <mergeCell ref="Z22:AH22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="I23:Y23"/>
+    <mergeCell ref="Z23:AH23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="I24:Y24"/>
+    <mergeCell ref="Z24:AH24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -6336,7 +6456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH61"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -6364,419 +6484,419 @@
     </row>
     <row r="5" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="35" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="35" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="37"/>
-      <c r="AA5" s="35" t="s">
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="37"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="34"/>
     </row>
     <row r="6" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="70" t="s">
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="70" t="s">
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="72"/>
-      <c r="AA6" s="70"/>
-      <c r="AB6" s="71"/>
-      <c r="AC6" s="71"/>
-      <c r="AD6" s="71"/>
-      <c r="AE6" s="71"/>
-      <c r="AF6" s="71"/>
-      <c r="AG6" s="71"/>
-      <c r="AH6" s="72"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="89"/>
+      <c r="Y6" s="89"/>
+      <c r="Z6" s="90"/>
+      <c r="AA6" s="88"/>
+      <c r="AB6" s="89"/>
+      <c r="AC6" s="89"/>
+      <c r="AD6" s="89"/>
+      <c r="AE6" s="89"/>
+      <c r="AF6" s="89"/>
+      <c r="AG6" s="89"/>
+      <c r="AH6" s="90"/>
     </row>
     <row r="7" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="64" t="s">
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="64" t="s">
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="66"/>
-      <c r="AA7" s="64"/>
-      <c r="AB7" s="65"/>
-      <c r="AC7" s="65"/>
-      <c r="AD7" s="65"/>
-      <c r="AE7" s="65"/>
-      <c r="AF7" s="65"/>
-      <c r="AG7" s="65"/>
-      <c r="AH7" s="66"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="94"/>
+      <c r="T7" s="94"/>
+      <c r="U7" s="94"/>
+      <c r="V7" s="94"/>
+      <c r="W7" s="94"/>
+      <c r="X7" s="94"/>
+      <c r="Y7" s="94"/>
+      <c r="Z7" s="95"/>
+      <c r="AA7" s="93"/>
+      <c r="AB7" s="94"/>
+      <c r="AC7" s="94"/>
+      <c r="AD7" s="94"/>
+      <c r="AE7" s="94"/>
+      <c r="AF7" s="94"/>
+      <c r="AG7" s="94"/>
+      <c r="AH7" s="95"/>
     </row>
     <row r="8" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="66"/>
-      <c r="AA8" s="64"/>
-      <c r="AB8" s="65"/>
-      <c r="AC8" s="65"/>
-      <c r="AD8" s="65"/>
-      <c r="AE8" s="65"/>
-      <c r="AF8" s="65"/>
-      <c r="AG8" s="65"/>
-      <c r="AH8" s="66"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="94"/>
+      <c r="T8" s="94"/>
+      <c r="U8" s="94"/>
+      <c r="V8" s="94"/>
+      <c r="W8" s="94"/>
+      <c r="X8" s="94"/>
+      <c r="Y8" s="94"/>
+      <c r="Z8" s="95"/>
+      <c r="AA8" s="93"/>
+      <c r="AB8" s="94"/>
+      <c r="AC8" s="94"/>
+      <c r="AD8" s="94"/>
+      <c r="AE8" s="94"/>
+      <c r="AF8" s="94"/>
+      <c r="AG8" s="94"/>
+      <c r="AH8" s="95"/>
     </row>
     <row r="9" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="64"/>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="65"/>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="65"/>
-      <c r="AG9" s="65"/>
-      <c r="AH9" s="66"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="94"/>
+      <c r="Z9" s="95"/>
+      <c r="AA9" s="93"/>
+      <c r="AB9" s="94"/>
+      <c r="AC9" s="94"/>
+      <c r="AD9" s="94"/>
+      <c r="AE9" s="94"/>
+      <c r="AF9" s="94"/>
+      <c r="AG9" s="94"/>
+      <c r="AH9" s="95"/>
     </row>
     <row r="10" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="65"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="66"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="94"/>
+      <c r="V10" s="94"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="94"/>
+      <c r="Y10" s="94"/>
+      <c r="Z10" s="95"/>
+      <c r="AA10" s="93"/>
+      <c r="AB10" s="94"/>
+      <c r="AC10" s="94"/>
+      <c r="AD10" s="94"/>
+      <c r="AE10" s="94"/>
+      <c r="AF10" s="94"/>
+      <c r="AG10" s="94"/>
+      <c r="AH10" s="95"/>
     </row>
     <row r="11" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="64"/>
-      <c r="AB11" s="65"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="65"/>
-      <c r="AE11" s="65"/>
-      <c r="AF11" s="65"/>
-      <c r="AG11" s="65"/>
-      <c r="AH11" s="66"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="94"/>
+      <c r="U11" s="94"/>
+      <c r="V11" s="94"/>
+      <c r="W11" s="94"/>
+      <c r="X11" s="94"/>
+      <c r="Y11" s="94"/>
+      <c r="Z11" s="95"/>
+      <c r="AA11" s="93"/>
+      <c r="AB11" s="94"/>
+      <c r="AC11" s="94"/>
+      <c r="AD11" s="94"/>
+      <c r="AE11" s="94"/>
+      <c r="AF11" s="94"/>
+      <c r="AG11" s="94"/>
+      <c r="AH11" s="95"/>
     </row>
     <row r="12" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="64"/>
-      <c r="AB12" s="65"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="65"/>
-      <c r="AE12" s="65"/>
-      <c r="AF12" s="65"/>
-      <c r="AG12" s="65"/>
-      <c r="AH12" s="66"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="94"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="94"/>
+      <c r="Z12" s="95"/>
+      <c r="AA12" s="93"/>
+      <c r="AB12" s="94"/>
+      <c r="AC12" s="94"/>
+      <c r="AD12" s="94"/>
+      <c r="AE12" s="94"/>
+      <c r="AF12" s="94"/>
+      <c r="AG12" s="94"/>
+      <c r="AH12" s="95"/>
     </row>
     <row r="13" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="66"/>
-      <c r="AA13" s="64"/>
-      <c r="AB13" s="65"/>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="65"/>
-      <c r="AE13" s="65"/>
-      <c r="AF13" s="65"/>
-      <c r="AG13" s="65"/>
-      <c r="AH13" s="66"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="94"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="93"/>
+      <c r="AB13" s="94"/>
+      <c r="AC13" s="94"/>
+      <c r="AD13" s="94"/>
+      <c r="AE13" s="94"/>
+      <c r="AF13" s="94"/>
+      <c r="AG13" s="94"/>
+      <c r="AH13" s="95"/>
     </row>
     <row r="14" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="65"/>
-      <c r="V14" s="65"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="65"/>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="64"/>
-      <c r="AB14" s="65"/>
-      <c r="AC14" s="65"/>
-      <c r="AD14" s="65"/>
-      <c r="AE14" s="65"/>
-      <c r="AF14" s="65"/>
-      <c r="AG14" s="65"/>
-      <c r="AH14" s="66"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
+      <c r="U14" s="94"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="94"/>
+      <c r="Z14" s="95"/>
+      <c r="AA14" s="93"/>
+      <c r="AB14" s="94"/>
+      <c r="AC14" s="94"/>
+      <c r="AD14" s="94"/>
+      <c r="AE14" s="94"/>
+      <c r="AF14" s="94"/>
+      <c r="AG14" s="94"/>
+      <c r="AH14" s="95"/>
     </row>
     <row r="15" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="64"/>
-      <c r="AB15" s="65"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="65"/>
-      <c r="AE15" s="65"/>
-      <c r="AF15" s="65"/>
-      <c r="AG15" s="65"/>
-      <c r="AH15" s="66"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="94"/>
+      <c r="U15" s="94"/>
+      <c r="V15" s="94"/>
+      <c r="W15" s="94"/>
+      <c r="X15" s="94"/>
+      <c r="Y15" s="94"/>
+      <c r="Z15" s="95"/>
+      <c r="AA15" s="93"/>
+      <c r="AB15" s="94"/>
+      <c r="AC15" s="94"/>
+      <c r="AD15" s="94"/>
+      <c r="AE15" s="94"/>
+      <c r="AF15" s="94"/>
+      <c r="AG15" s="94"/>
+      <c r="AH15" s="95"/>
     </row>
     <row r="16" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
@@ -6846,366 +6966,366 @@
       </c>
     </row>
     <row r="53" spans="1:28" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="93" t="s">
+      <c r="B53" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="94"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="94"/>
-      <c r="F53" s="94"/>
-      <c r="G53" s="95"/>
-      <c r="H53" s="37" t="s">
+      <c r="C53" s="68"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I53" s="43"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="43" t="s">
+      <c r="I53" s="49"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="L53" s="43"/>
-      <c r="M53" s="43"/>
-      <c r="N53" s="87" t="s">
+      <c r="L53" s="49"/>
+      <c r="M53" s="49"/>
+      <c r="N53" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="O53" s="43"/>
-      <c r="P53" s="43"/>
-      <c r="Q53" s="43" t="s">
+      <c r="O53" s="49"/>
+      <c r="P53" s="49"/>
+      <c r="Q53" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="R53" s="43"/>
-      <c r="S53" s="43"/>
-      <c r="T53" s="43" t="s">
+      <c r="R53" s="49"/>
+      <c r="S53" s="49"/>
+      <c r="T53" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="U53" s="43"/>
-      <c r="V53" s="43"/>
-      <c r="W53" s="87" t="s">
+      <c r="U53" s="49"/>
+      <c r="V53" s="49"/>
+      <c r="W53" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="X53" s="43"/>
-      <c r="Y53" s="43"/>
-      <c r="Z53" s="43" t="s">
+      <c r="X53" s="49"/>
+      <c r="Y53" s="49"/>
+      <c r="Z53" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="AA53" s="43"/>
-      <c r="AB53" s="43"/>
+      <c r="AA53" s="49"/>
+      <c r="AB53" s="49"/>
     </row>
     <row r="54" spans="1:28" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="88" t="s">
+      <c r="B54" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="88"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="88"/>
-      <c r="F54" s="88"/>
-      <c r="G54" s="89"/>
-      <c r="H54" s="90" t="s">
+      <c r="C54" s="62"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="I54" s="91"/>
-      <c r="J54" s="91"/>
-      <c r="K54" s="92" t="s">
+      <c r="I54" s="65"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="L54" s="92"/>
-      <c r="M54" s="92"/>
-      <c r="N54" s="92" t="s">
+      <c r="L54" s="66"/>
+      <c r="M54" s="66"/>
+      <c r="N54" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="O54" s="92"/>
-      <c r="P54" s="92"/>
-      <c r="Q54" s="92" t="s">
+      <c r="O54" s="66"/>
+      <c r="P54" s="66"/>
+      <c r="Q54" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="R54" s="92"/>
-      <c r="S54" s="92"/>
-      <c r="T54" s="92" t="s">
+      <c r="R54" s="66"/>
+      <c r="S54" s="66"/>
+      <c r="T54" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="U54" s="92"/>
-      <c r="V54" s="92"/>
-      <c r="W54" s="92" t="s">
+      <c r="U54" s="66"/>
+      <c r="V54" s="66"/>
+      <c r="W54" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="X54" s="92"/>
-      <c r="Y54" s="92"/>
-      <c r="Z54" s="92" t="s">
+      <c r="X54" s="66"/>
+      <c r="Y54" s="66"/>
+      <c r="Z54" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="AA54" s="92"/>
-      <c r="AB54" s="92"/>
+      <c r="AA54" s="66"/>
+      <c r="AB54" s="66"/>
     </row>
     <row r="55" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="74" t="s">
+      <c r="B55" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="74"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="75"/>
-      <c r="H55" s="63" t="s">
+      <c r="C55" s="71"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="I55" s="73"/>
-      <c r="J55" s="73"/>
-      <c r="K55" s="77" t="s">
+      <c r="I55" s="70"/>
+      <c r="J55" s="70"/>
+      <c r="K55" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="L55" s="77"/>
-      <c r="M55" s="77"/>
-      <c r="N55" s="73" t="s">
+      <c r="L55" s="75"/>
+      <c r="M55" s="75"/>
+      <c r="N55" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="O55" s="73"/>
-      <c r="P55" s="73"/>
-      <c r="Q55" s="73" t="s">
+      <c r="O55" s="70"/>
+      <c r="P55" s="70"/>
+      <c r="Q55" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="R55" s="73"/>
-      <c r="S55" s="73"/>
-      <c r="T55" s="73" t="s">
+      <c r="R55" s="70"/>
+      <c r="S55" s="70"/>
+      <c r="T55" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="U55" s="73"/>
-      <c r="V55" s="73"/>
-      <c r="W55" s="73" t="s">
+      <c r="U55" s="70"/>
+      <c r="V55" s="70"/>
+      <c r="W55" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="X55" s="73"/>
-      <c r="Y55" s="73"/>
-      <c r="Z55" s="73" t="s">
+      <c r="X55" s="70"/>
+      <c r="Y55" s="70"/>
+      <c r="Z55" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="AA55" s="73"/>
-      <c r="AB55" s="73"/>
+      <c r="AA55" s="70"/>
+      <c r="AB55" s="70"/>
     </row>
     <row r="56" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="74" t="s">
+      <c r="B56" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="74"/>
-      <c r="D56" s="74"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="74"/>
-      <c r="G56" s="75"/>
-      <c r="H56" s="63" t="s">
+      <c r="C56" s="71"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="I56" s="73"/>
-      <c r="J56" s="73"/>
-      <c r="K56" s="73" t="s">
+      <c r="I56" s="70"/>
+      <c r="J56" s="70"/>
+      <c r="K56" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="L56" s="73"/>
-      <c r="M56" s="73"/>
-      <c r="N56" s="76" t="s">
+      <c r="L56" s="70"/>
+      <c r="M56" s="70"/>
+      <c r="N56" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="O56" s="77"/>
-      <c r="P56" s="77"/>
-      <c r="Q56" s="76" t="s">
+      <c r="O56" s="75"/>
+      <c r="P56" s="75"/>
+      <c r="Q56" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="R56" s="77"/>
-      <c r="S56" s="77"/>
-      <c r="T56" s="73" t="s">
+      <c r="R56" s="75"/>
+      <c r="S56" s="75"/>
+      <c r="T56" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="U56" s="73"/>
-      <c r="V56" s="73"/>
-      <c r="W56" s="73" t="s">
+      <c r="U56" s="70"/>
+      <c r="V56" s="70"/>
+      <c r="W56" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="X56" s="73"/>
-      <c r="Y56" s="73"/>
-      <c r="Z56" s="73" t="s">
+      <c r="X56" s="70"/>
+      <c r="Y56" s="70"/>
+      <c r="Z56" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="AA56" s="73"/>
-      <c r="AB56" s="73"/>
+      <c r="AA56" s="70"/>
+      <c r="AB56" s="70"/>
     </row>
     <row r="57" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="78" t="s">
+      <c r="B57" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="C57" s="79"/>
-      <c r="D57" s="80"/>
-      <c r="E57" s="84" t="s">
+      <c r="C57" s="77"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="F57" s="85"/>
-      <c r="G57" s="86"/>
-      <c r="H57" s="63" t="s">
+      <c r="F57" s="83"/>
+      <c r="G57" s="84"/>
+      <c r="H57" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="I57" s="73"/>
-      <c r="J57" s="73"/>
-      <c r="K57" s="73" t="s">
+      <c r="I57" s="70"/>
+      <c r="J57" s="70"/>
+      <c r="K57" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="L57" s="73"/>
-      <c r="M57" s="73"/>
-      <c r="N57" s="73" t="s">
+      <c r="L57" s="70"/>
+      <c r="M57" s="70"/>
+      <c r="N57" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="O57" s="73"/>
-      <c r="P57" s="73"/>
-      <c r="Q57" s="73" t="s">
+      <c r="O57" s="70"/>
+      <c r="P57" s="70"/>
+      <c r="Q57" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="R57" s="73"/>
-      <c r="S57" s="73"/>
-      <c r="T57" s="76" t="s">
+      <c r="R57" s="70"/>
+      <c r="S57" s="70"/>
+      <c r="T57" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="U57" s="77"/>
-      <c r="V57" s="77"/>
-      <c r="W57" s="73" t="s">
+      <c r="U57" s="75"/>
+      <c r="V57" s="75"/>
+      <c r="W57" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="X57" s="73"/>
-      <c r="Y57" s="73"/>
-      <c r="Z57" s="73" t="s">
+      <c r="X57" s="70"/>
+      <c r="Y57" s="70"/>
+      <c r="Z57" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="AA57" s="73"/>
-      <c r="AB57" s="73"/>
+      <c r="AA57" s="70"/>
+      <c r="AB57" s="70"/>
     </row>
     <row r="58" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="81"/>
-      <c r="C58" s="82"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="84" t="s">
+      <c r="B58" s="79"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="F58" s="85"/>
-      <c r="G58" s="86"/>
-      <c r="H58" s="63" t="s">
+      <c r="F58" s="83"/>
+      <c r="G58" s="84"/>
+      <c r="H58" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="I58" s="73"/>
-      <c r="J58" s="73"/>
-      <c r="K58" s="73" t="s">
+      <c r="I58" s="70"/>
+      <c r="J58" s="70"/>
+      <c r="K58" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="L58" s="73"/>
-      <c r="M58" s="73"/>
-      <c r="N58" s="73" t="s">
+      <c r="L58" s="70"/>
+      <c r="M58" s="70"/>
+      <c r="N58" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="O58" s="73"/>
-      <c r="P58" s="73"/>
-      <c r="Q58" s="73" t="s">
+      <c r="O58" s="70"/>
+      <c r="P58" s="70"/>
+      <c r="Q58" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="R58" s="73"/>
-      <c r="S58" s="73"/>
-      <c r="T58" s="73" t="s">
+      <c r="R58" s="70"/>
+      <c r="S58" s="70"/>
+      <c r="T58" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="U58" s="73"/>
-      <c r="V58" s="73"/>
-      <c r="W58" s="76" t="s">
+      <c r="U58" s="70"/>
+      <c r="V58" s="70"/>
+      <c r="W58" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="X58" s="77"/>
-      <c r="Y58" s="77"/>
-      <c r="Z58" s="76" t="s">
+      <c r="X58" s="75"/>
+      <c r="Y58" s="75"/>
+      <c r="Z58" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="AA58" s="77"/>
-      <c r="AB58" s="77"/>
+      <c r="AA58" s="75"/>
+      <c r="AB58" s="75"/>
     </row>
     <row r="59" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="74" t="s">
+      <c r="B59" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="74"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="75"/>
-      <c r="H59" s="63" t="s">
+      <c r="C59" s="71"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="71"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="72"/>
+      <c r="H59" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="I59" s="73"/>
-      <c r="J59" s="73"/>
-      <c r="K59" s="73" t="s">
+      <c r="I59" s="70"/>
+      <c r="J59" s="70"/>
+      <c r="K59" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="L59" s="73"/>
-      <c r="M59" s="73"/>
-      <c r="N59" s="73" t="s">
+      <c r="L59" s="70"/>
+      <c r="M59" s="70"/>
+      <c r="N59" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="O59" s="73"/>
-      <c r="P59" s="73"/>
-      <c r="Q59" s="73" t="s">
+      <c r="O59" s="70"/>
+      <c r="P59" s="70"/>
+      <c r="Q59" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="R59" s="73"/>
-      <c r="S59" s="73"/>
-      <c r="T59" s="73" t="s">
+      <c r="R59" s="70"/>
+      <c r="S59" s="70"/>
+      <c r="T59" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="U59" s="73"/>
-      <c r="V59" s="73"/>
-      <c r="W59" s="73" t="s">
+      <c r="U59" s="70"/>
+      <c r="V59" s="70"/>
+      <c r="W59" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="X59" s="73"/>
-      <c r="Y59" s="73"/>
-      <c r="Z59" s="73" t="s">
+      <c r="X59" s="70"/>
+      <c r="Y59" s="70"/>
+      <c r="Z59" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="AA59" s="73"/>
-      <c r="AB59" s="73"/>
+      <c r="AA59" s="70"/>
+      <c r="AB59" s="70"/>
     </row>
     <row r="60" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="74" t="s">
+      <c r="B60" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="C60" s="74"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="74"/>
-      <c r="G60" s="75"/>
-      <c r="H60" s="63" t="s">
+      <c r="C60" s="71"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="72"/>
+      <c r="H60" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="I60" s="73"/>
-      <c r="J60" s="73"/>
-      <c r="K60" s="73" t="s">
+      <c r="I60" s="70"/>
+      <c r="J60" s="70"/>
+      <c r="K60" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="L60" s="73"/>
-      <c r="M60" s="73"/>
-      <c r="N60" s="73" t="s">
+      <c r="L60" s="70"/>
+      <c r="M60" s="70"/>
+      <c r="N60" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="O60" s="73"/>
-      <c r="P60" s="73"/>
-      <c r="Q60" s="73" t="s">
+      <c r="O60" s="70"/>
+      <c r="P60" s="70"/>
+      <c r="Q60" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="R60" s="73"/>
-      <c r="S60" s="73"/>
-      <c r="T60" s="73" t="s">
+      <c r="R60" s="70"/>
+      <c r="S60" s="70"/>
+      <c r="T60" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="U60" s="73"/>
-      <c r="V60" s="73"/>
-      <c r="W60" s="73" t="s">
+      <c r="U60" s="70"/>
+      <c r="V60" s="70"/>
+      <c r="W60" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="X60" s="73"/>
-      <c r="Y60" s="73"/>
-      <c r="Z60" s="73" t="s">
+      <c r="X60" s="70"/>
+      <c r="Y60" s="70"/>
+      <c r="Z60" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="AA60" s="73"/>
-      <c r="AB60" s="73"/>
+      <c r="AA60" s="70"/>
+      <c r="AB60" s="70"/>
     </row>
     <row r="61" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H61" s="2" t="s">
@@ -7214,54 +7334,50 @@
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="T53:V53"/>
-    <mergeCell ref="W53:Y53"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="Q54:S54"/>
-    <mergeCell ref="T54:V54"/>
-    <mergeCell ref="W54:Y54"/>
-    <mergeCell ref="Z54:AB54"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="T55:V55"/>
-    <mergeCell ref="W55:Y55"/>
-    <mergeCell ref="Z55:AB55"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="Q56:S56"/>
-    <mergeCell ref="T56:V56"/>
-    <mergeCell ref="W56:Y56"/>
-    <mergeCell ref="Z56:AB56"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="Q55:S55"/>
-    <mergeCell ref="T57:V57"/>
-    <mergeCell ref="W57:Y57"/>
-    <mergeCell ref="Z57:AB57"/>
-    <mergeCell ref="B57:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="Q57:S57"/>
-    <mergeCell ref="Q58:S58"/>
-    <mergeCell ref="T58:V58"/>
-    <mergeCell ref="W58:Y58"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="L14:Z14"/>
+    <mergeCell ref="AA14:AH14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="L15:Z15"/>
+    <mergeCell ref="AA15:AH15"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:K12"/>
+    <mergeCell ref="L12:Z12"/>
+    <mergeCell ref="AA12:AH12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="L13:Z13"/>
+    <mergeCell ref="AA13:AH13"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="L10:Z10"/>
+    <mergeCell ref="AA10:AH10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:K11"/>
+    <mergeCell ref="L11:Z11"/>
+    <mergeCell ref="AA11:AH11"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="L8:Z8"/>
+    <mergeCell ref="AA8:AH8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:K9"/>
+    <mergeCell ref="L9:Z9"/>
+    <mergeCell ref="AA9:AH9"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:Z6"/>
+    <mergeCell ref="AA6:AH6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="L7:Z7"/>
+    <mergeCell ref="AA7:AH7"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="L5:Z5"/>
+    <mergeCell ref="AA5:AH5"/>
+    <mergeCell ref="F5:K5"/>
     <mergeCell ref="T60:V60"/>
     <mergeCell ref="W60:Y60"/>
     <mergeCell ref="Z60:AB60"/>
@@ -7279,50 +7395,54 @@
     <mergeCell ref="T59:V59"/>
     <mergeCell ref="W59:Y59"/>
     <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:Z6"/>
-    <mergeCell ref="AA6:AH6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="L7:Z7"/>
-    <mergeCell ref="AA7:AH7"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="L5:Z5"/>
-    <mergeCell ref="AA5:AH5"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="L10:Z10"/>
-    <mergeCell ref="AA10:AH10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:K11"/>
-    <mergeCell ref="L11:Z11"/>
-    <mergeCell ref="AA11:AH11"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="L8:Z8"/>
-    <mergeCell ref="AA8:AH8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:K9"/>
-    <mergeCell ref="L9:Z9"/>
-    <mergeCell ref="AA9:AH9"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="L14:Z14"/>
-    <mergeCell ref="AA14:AH14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="L15:Z15"/>
-    <mergeCell ref="AA15:AH15"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:K12"/>
-    <mergeCell ref="L12:Z12"/>
-    <mergeCell ref="AA12:AH12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="L13:Z13"/>
-    <mergeCell ref="AA13:AH13"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="W57:Y57"/>
+    <mergeCell ref="Z57:AB57"/>
+    <mergeCell ref="B57:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="Q57:S57"/>
+    <mergeCell ref="Q58:S58"/>
+    <mergeCell ref="T58:V58"/>
+    <mergeCell ref="W58:Y58"/>
+    <mergeCell ref="T55:V55"/>
+    <mergeCell ref="W55:Y55"/>
+    <mergeCell ref="Z55:AB55"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="Q56:S56"/>
+    <mergeCell ref="T56:V56"/>
+    <mergeCell ref="W56:Y56"/>
+    <mergeCell ref="Z56:AB56"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="Q55:S55"/>
+    <mergeCell ref="T53:V53"/>
+    <mergeCell ref="W53:Y53"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="Q54:S54"/>
+    <mergeCell ref="T54:V54"/>
+    <mergeCell ref="W54:Y54"/>
+    <mergeCell ref="Z54:AB54"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="Q53:S53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
